--- a/artfynd/A 14121-2025 artfynd.xlsx
+++ b/artfynd/A 14121-2025 artfynd.xlsx
@@ -804,7 +804,7 @@
         <v>124814311</v>
       </c>
       <c r="B3" t="n">
-        <v>57893</v>
+        <v>57897</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
